--- a/data/pca/factorExposure/factorExposure_2018-05-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-14.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01400141169110244</v>
+        <v>-0.01866508561253548</v>
       </c>
       <c r="C2">
-        <v>-0.02713868444998032</v>
+        <v>0.01657636383290416</v>
       </c>
       <c r="D2">
-        <v>0.01110290295238322</v>
+        <v>-0.03067889790176915</v>
       </c>
       <c r="E2">
-        <v>0.01282288255119132</v>
+        <v>0.01637544134563482</v>
       </c>
       <c r="F2">
-        <v>0.1154409793992324</v>
+        <v>-0.005710257213176578</v>
       </c>
       <c r="G2">
-        <v>0.07342661515037523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04650245642549882</v>
+      </c>
+      <c r="H2">
+        <v>0.04818370021263439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>-0.08288571913484924</v>
+        <v>-0.08084679333776221</v>
       </c>
       <c r="C3">
-        <v>-0.003783824338026084</v>
+        <v>-0.01534989799125363</v>
       </c>
       <c r="D3">
-        <v>0.07596130049749504</v>
+        <v>-0.06043506683531658</v>
       </c>
       <c r="E3">
-        <v>0.09409701232158621</v>
+        <v>0.01172607409732669</v>
       </c>
       <c r="F3">
-        <v>0.4072069949936298</v>
+        <v>0.01578732259730361</v>
       </c>
       <c r="G3">
-        <v>0.2489159837531797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1783125967372846</v>
+      </c>
+      <c r="H3">
+        <v>0.1521351457815869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.04199149891016598</v>
+        <v>-0.04601687568662234</v>
       </c>
       <c r="C4">
-        <v>0.0002172143669320239</v>
+        <v>0.001348695057275637</v>
       </c>
       <c r="D4">
-        <v>-0.001392224048020708</v>
+        <v>-0.05834935273595282</v>
       </c>
       <c r="E4">
-        <v>-0.04799968342721275</v>
+        <v>-0.0185373853949527</v>
       </c>
       <c r="F4">
-        <v>0.08160858742200772</v>
+        <v>-0.04547750795655956</v>
       </c>
       <c r="G4">
-        <v>0.04366053844318733</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0405797109177558</v>
+      </c>
+      <c r="H4">
+        <v>0.05853555395117487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.03307842379129843</v>
+        <v>-0.02784686827348357</v>
       </c>
       <c r="C6">
-        <v>-0.01190362899280744</v>
+        <v>-0.001779847602784455</v>
       </c>
       <c r="D6">
-        <v>0.004736168724874422</v>
+        <v>-0.05989361718845863</v>
       </c>
       <c r="E6">
-        <v>-0.02425750833429698</v>
+        <v>-0.003936892144085779</v>
       </c>
       <c r="F6">
-        <v>0.01285185760546693</v>
+        <v>-0.03095539869039364</v>
       </c>
       <c r="G6">
-        <v>-0.01658984976476075</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01090806743501569</v>
+      </c>
+      <c r="H6">
+        <v>0.06256042944816884</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.017931653454181</v>
+        <v>-0.02168286276885454</v>
       </c>
       <c r="C7">
-        <v>8.377732236148486e-05</v>
+        <v>0.0006886021099866964</v>
       </c>
       <c r="D7">
-        <v>0.01704891127227606</v>
+        <v>-0.0309577471701557</v>
       </c>
       <c r="E7">
-        <v>-0.02495545738765243</v>
+        <v>-0.04216044382833622</v>
       </c>
       <c r="F7">
-        <v>0.0521287345632641</v>
+        <v>-0.002376596852124453</v>
       </c>
       <c r="G7">
-        <v>0.06738284861346189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02487366126702649</v>
+      </c>
+      <c r="H7">
+        <v>0.03949243303701874</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.01507446217150728</v>
+        <v>-0.004809964614596067</v>
       </c>
       <c r="C8">
-        <v>-0.007661268944623381</v>
+        <v>-0.002415647285975279</v>
       </c>
       <c r="D8">
-        <v>0.01221573825618915</v>
+        <v>-0.01400254457553726</v>
       </c>
       <c r="E8">
-        <v>-0.03491007103715137</v>
+        <v>-0.005280644699656384</v>
       </c>
       <c r="F8">
-        <v>0.1029469039735617</v>
+        <v>-0.01845614712939598</v>
       </c>
       <c r="G8">
-        <v>0.05411413435778999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04229295024206554</v>
+      </c>
+      <c r="H8">
+        <v>0.04292562320727875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.03241788701530311</v>
+        <v>-0.03645049074983459</v>
       </c>
       <c r="C9">
-        <v>-0.003083345057035808</v>
+        <v>-0.001215788634289802</v>
       </c>
       <c r="D9">
-        <v>0.005891341807014415</v>
+        <v>-0.04127955345121388</v>
       </c>
       <c r="E9">
-        <v>-0.03431708839134089</v>
+        <v>-0.008042997745774216</v>
       </c>
       <c r="F9">
-        <v>0.09705938285649221</v>
+        <v>-0.0212506711777351</v>
       </c>
       <c r="G9">
-        <v>0.04635694858660738</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04543629819998365</v>
+      </c>
+      <c r="H9">
+        <v>0.05719341727623739</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03613863037309252</v>
+        <v>-0.1054109277164061</v>
       </c>
       <c r="C10">
-        <v>0.06604319404208318</v>
+        <v>0.0006458473623477826</v>
       </c>
       <c r="D10">
-        <v>-0.07491347666680569</v>
+        <v>0.1666012262267541</v>
       </c>
       <c r="E10">
-        <v>0.1274869826597332</v>
+        <v>0.0008226890327992014</v>
       </c>
       <c r="F10">
-        <v>0.04738430484645615</v>
+        <v>0.03600474732162021</v>
       </c>
       <c r="G10">
-        <v>0.01777903903211984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03271361827838428</v>
+      </c>
+      <c r="H10">
+        <v>0.002843321068692127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.03146840784293146</v>
+        <v>-0.0229326342602612</v>
       </c>
       <c r="C11">
-        <v>-0.02111572057395432</v>
+        <v>-0.01269584240266979</v>
       </c>
       <c r="D11">
-        <v>0.01485825157779827</v>
+        <v>-0.04606871096752385</v>
       </c>
       <c r="E11">
-        <v>-0.02775815667781626</v>
+        <v>0.001693130960027537</v>
       </c>
       <c r="F11">
-        <v>0.053250356440281</v>
+        <v>-0.01217439641627176</v>
       </c>
       <c r="G11">
-        <v>0.02258696380954077</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02742026754568996</v>
+      </c>
+      <c r="H11">
+        <v>0.04999172149267275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.03987874119692274</v>
+        <v>-0.02777388961030057</v>
       </c>
       <c r="C12">
-        <v>-0.02427191270291497</v>
+        <v>-0.009100899588572344</v>
       </c>
       <c r="D12">
-        <v>0.008169539603979816</v>
+        <v>-0.04417384481305139</v>
       </c>
       <c r="E12">
-        <v>-0.03505660156223232</v>
+        <v>-0.008155720408811904</v>
       </c>
       <c r="F12">
-        <v>0.02605585636408041</v>
+        <v>-0.01492042591591605</v>
       </c>
       <c r="G12">
-        <v>0.01380134438340485</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007485084905259635</v>
+      </c>
+      <c r="H12">
+        <v>0.02154098894701051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01418425947551505</v>
+        <v>-0.02821962718620075</v>
       </c>
       <c r="C13">
-        <v>-0.02081141462726683</v>
+        <v>0.01255719081593365</v>
       </c>
       <c r="D13">
-        <v>-0.003483110012884794</v>
+        <v>-0.01898076669774586</v>
       </c>
       <c r="E13">
-        <v>0.0006383794915904196</v>
+        <v>0.0130604567054565</v>
       </c>
       <c r="F13">
-        <v>0.08748346841303702</v>
+        <v>-0.02221796735668517</v>
       </c>
       <c r="G13">
-        <v>0.0467143553477045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06175411467973526</v>
+      </c>
+      <c r="H13">
+        <v>0.07497824503129755</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.01543821364859067</v>
+        <v>-0.01867131673557851</v>
       </c>
       <c r="C14">
-        <v>6.355836089513686e-05</v>
+        <v>0.0001421993310817535</v>
       </c>
       <c r="D14">
-        <v>-0.0003016045468337747</v>
+        <v>-0.01199205047846901</v>
       </c>
       <c r="E14">
-        <v>-0.02827084290548281</v>
+        <v>-0.0131094343448501</v>
       </c>
       <c r="F14">
-        <v>0.06084500430283955</v>
+        <v>-0.01459025658539698</v>
       </c>
       <c r="G14">
-        <v>0.05082610274283984</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03962736584471401</v>
+      </c>
+      <c r="H14">
+        <v>0.01346266723361671</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.03035301131164677</v>
+        <v>-0.0246588231367204</v>
       </c>
       <c r="C16">
-        <v>-0.0277566532107109</v>
+        <v>-0.01201582602103143</v>
       </c>
       <c r="D16">
-        <v>0.01253560506457823</v>
+        <v>-0.03749198337490384</v>
       </c>
       <c r="E16">
-        <v>-0.02950366357140489</v>
+        <v>-0.001821991197939818</v>
       </c>
       <c r="F16">
-        <v>0.05153004940616651</v>
+        <v>-0.01575617705420796</v>
       </c>
       <c r="G16">
-        <v>0.02122263826743415</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02256595862585077</v>
+      </c>
+      <c r="H16">
+        <v>0.03734073555272822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.03279883184418313</v>
+        <v>-0.03017889314706957</v>
       </c>
       <c r="C19">
-        <v>-0.02281744508914835</v>
+        <v>-0.001213327192593656</v>
       </c>
       <c r="D19">
-        <v>0.01496758513446053</v>
+        <v>-0.03787979747721674</v>
       </c>
       <c r="E19">
-        <v>-0.02374333359843252</v>
+        <v>-0.003715638862967182</v>
       </c>
       <c r="F19">
-        <v>0.1048725943083997</v>
+        <v>-0.02527523765226468</v>
       </c>
       <c r="G19">
-        <v>0.05846503210324917</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05731403091332311</v>
+      </c>
+      <c r="H19">
+        <v>0.06254187899372464</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.003919253566217216</v>
+        <v>-0.01119616126176985</v>
       </c>
       <c r="C20">
-        <v>0.0028473547876123</v>
+        <v>0.004170934227846073</v>
       </c>
       <c r="D20">
-        <v>0.0006906141635417523</v>
+        <v>-0.02078637820018386</v>
       </c>
       <c r="E20">
-        <v>-0.01982710857130443</v>
+        <v>-0.004197365828499809</v>
       </c>
       <c r="F20">
-        <v>0.08076163452318157</v>
+        <v>-0.01432633147217193</v>
       </c>
       <c r="G20">
-        <v>0.07939011610416351</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05278709187201169</v>
+      </c>
+      <c r="H20">
+        <v>0.0281128390074976</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.001039512760264674</v>
+        <v>-0.01665651633047499</v>
       </c>
       <c r="C21">
-        <v>0.01479863567648096</v>
+        <v>0.005621265779694744</v>
       </c>
       <c r="D21">
-        <v>0.02327138336817601</v>
+        <v>-0.0226227361526103</v>
       </c>
       <c r="E21">
-        <v>-0.0308605195203565</v>
+        <v>-0.01793946437535968</v>
       </c>
       <c r="F21">
-        <v>0.0400644544726123</v>
+        <v>-0.007853696915757706</v>
       </c>
       <c r="G21">
-        <v>0.0144660538078906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04786851387162175</v>
+      </c>
+      <c r="H21">
+        <v>0.04207532441572195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.02832558385183723</v>
+        <v>-0.019889085176675</v>
       </c>
       <c r="C24">
-        <v>-0.01860238926596823</v>
+        <v>-0.006632064846948269</v>
       </c>
       <c r="D24">
-        <v>0.002542174086052131</v>
+        <v>-0.04122579230712192</v>
       </c>
       <c r="E24">
-        <v>-0.01573086634365658</v>
+        <v>-0.0002815206206920521</v>
       </c>
       <c r="F24">
-        <v>0.04987497979984329</v>
+        <v>-0.01076680699675085</v>
       </c>
       <c r="G24">
-        <v>0.01933525108089686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.017184947984662</v>
+      </c>
+      <c r="H24">
+        <v>0.04635791811921005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.02989852685729377</v>
+        <v>-0.03231223288312021</v>
       </c>
       <c r="C25">
-        <v>-0.01626302514944352</v>
+        <v>-0.004596710777965725</v>
       </c>
       <c r="D25">
-        <v>0.01739859384603522</v>
+        <v>-0.04245646651642535</v>
       </c>
       <c r="E25">
-        <v>-0.02670223353055474</v>
+        <v>-0.00548792056878474</v>
       </c>
       <c r="F25">
-        <v>0.05230762008604801</v>
+        <v>-0.01846777081097651</v>
       </c>
       <c r="G25">
-        <v>0.01228674373346587</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02159453444002371</v>
+      </c>
+      <c r="H25">
+        <v>0.04285051447372001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.01758171741269781</v>
+        <v>-0.01717823482836225</v>
       </c>
       <c r="C26">
-        <v>-0.01445101820373571</v>
+        <v>0.01822177927562665</v>
       </c>
       <c r="D26">
-        <v>0.01923669182645529</v>
+        <v>-0.008260203896411196</v>
       </c>
       <c r="E26">
-        <v>0.001458245848091246</v>
+        <v>-6.035864070881753e-05</v>
       </c>
       <c r="F26">
-        <v>0.06897822732316007</v>
+        <v>-0.002428987471753884</v>
       </c>
       <c r="G26">
-        <v>0.04635605529370335</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02977509545955965</v>
+      </c>
+      <c r="H26">
+        <v>0.02449422610162771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>-0.05265071277191802</v>
+        <v>-0.02114791606619456</v>
       </c>
       <c r="C27">
-        <v>-0.01275820565186122</v>
+        <v>-0.007897812688536487</v>
       </c>
       <c r="D27">
-        <v>-0.02275442688129009</v>
+        <v>-0.01310926873535281</v>
       </c>
       <c r="E27">
-        <v>-0.03490838198208782</v>
+        <v>-0.004415627898152489</v>
       </c>
       <c r="F27">
-        <v>0.04279727628932578</v>
+        <v>-0.01143693522575452</v>
       </c>
       <c r="G27">
-        <v>0.04738295380960367</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.008777251701729301</v>
+      </c>
+      <c r="H27">
+        <v>-0.003264462368193234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.06511613909258757</v>
+        <v>-0.1549987508047792</v>
       </c>
       <c r="C28">
-        <v>0.09246313356630557</v>
+        <v>0.01040482026423737</v>
       </c>
       <c r="D28">
-        <v>-0.1032408074901246</v>
+        <v>0.2187323945436392</v>
       </c>
       <c r="E28">
-        <v>0.1592018369961485</v>
+        <v>-0.008241326421076538</v>
       </c>
       <c r="F28">
-        <v>0.04406378446127283</v>
+        <v>0.03236000079910194</v>
       </c>
       <c r="G28">
-        <v>0.01545950152449978</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.01991049182974573</v>
+      </c>
+      <c r="H28">
+        <v>-0.007346067573928274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.02040800069816906</v>
+        <v>-0.02361851618876695</v>
       </c>
       <c r="C29">
-        <v>0.0004965100610519254</v>
+        <v>-0.001526955148402982</v>
       </c>
       <c r="D29">
-        <v>-0.0009268629241352026</v>
+        <v>-0.01198108162740222</v>
       </c>
       <c r="E29">
-        <v>-0.03614252657081892</v>
+        <v>-0.01354387461830087</v>
       </c>
       <c r="F29">
-        <v>0.06014571246099464</v>
+        <v>-0.0163505453157809</v>
       </c>
       <c r="G29">
-        <v>0.03817041373179255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03864082364088811</v>
+      </c>
+      <c r="H29">
+        <v>0.005163163534989659</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.08094683625698995</v>
+        <v>-0.05259233569309003</v>
       </c>
       <c r="C30">
-        <v>-0.04596871587054822</v>
+        <v>-0.002212769228860116</v>
       </c>
       <c r="D30">
-        <v>0.0006377466187949217</v>
+        <v>-0.08946561183603934</v>
       </c>
       <c r="E30">
-        <v>-0.05926025813205014</v>
+        <v>0.03273295936284928</v>
       </c>
       <c r="F30">
-        <v>0.1105011867808592</v>
+        <v>-0.04852355750321988</v>
       </c>
       <c r="G30">
-        <v>0.05988462852738188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05971117954053395</v>
+      </c>
+      <c r="H30">
+        <v>0.07836476154871223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.05824858838480863</v>
+        <v>-0.05006066107520873</v>
       </c>
       <c r="C31">
-        <v>-0.03292587178574723</v>
+        <v>-0.01149563679521876</v>
       </c>
       <c r="D31">
-        <v>0.004407496374319999</v>
+        <v>-0.02445252280387974</v>
       </c>
       <c r="E31">
-        <v>-0.01259377773628757</v>
+        <v>0.00532064069118507</v>
       </c>
       <c r="F31">
-        <v>0.05237129071027388</v>
+        <v>-0.006164166959849161</v>
       </c>
       <c r="G31">
-        <v>0.05076635939947274</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.0193413162878643</v>
+      </c>
+      <c r="H31">
+        <v>0.002689132930072576</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01570604934099985</v>
+        <v>-0.01163101792640846</v>
       </c>
       <c r="C32">
-        <v>-0.002255742618925784</v>
+        <v>-0.01398181423603516</v>
       </c>
       <c r="D32">
-        <v>0.01627251034160846</v>
+        <v>-0.01077424824074891</v>
       </c>
       <c r="E32">
-        <v>-0.06947353202500214</v>
+        <v>-0.02910047056012478</v>
       </c>
       <c r="F32">
-        <v>0.07914138109810505</v>
+        <v>-0.03972224638645644</v>
       </c>
       <c r="G32">
-        <v>0.04420340160436563</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03023742891636919</v>
+      </c>
+      <c r="H32">
+        <v>0.05704922111132862</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.04306555675631402</v>
+        <v>-0.03452770084180917</v>
       </c>
       <c r="C33">
-        <v>-0.03523123385993363</v>
+        <v>-0.002031716511277174</v>
       </c>
       <c r="D33">
-        <v>0.03666257595077219</v>
+        <v>-0.03917260304047921</v>
       </c>
       <c r="E33">
-        <v>-0.02343807199243659</v>
+        <v>0.02192227146758175</v>
       </c>
       <c r="F33">
-        <v>0.08492235532162616</v>
+        <v>2.684683424053874e-05</v>
       </c>
       <c r="G33">
-        <v>0.05451318477393115</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04739394022425326</v>
+      </c>
+      <c r="H33">
+        <v>0.04995431300541654</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.02807834655667709</v>
+        <v>-0.02995208667617221</v>
       </c>
       <c r="C34">
-        <v>-0.02277781901719267</v>
+        <v>-0.02032105731898133</v>
       </c>
       <c r="D34">
-        <v>0.01151395829166058</v>
+        <v>-0.03850649239426021</v>
       </c>
       <c r="E34">
-        <v>-0.03376383494932386</v>
+        <v>-0.01154170982741354</v>
       </c>
       <c r="F34">
-        <v>0.05804523445242707</v>
+        <v>-0.0182527166364927</v>
       </c>
       <c r="G34">
-        <v>0.01970742343256183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01402107981129768</v>
+      </c>
+      <c r="H34">
+        <v>0.03694447246625033</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.01407410317202583</v>
+        <v>-0.01808915024411276</v>
       </c>
       <c r="C36">
-        <v>0.001313193946518325</v>
+        <v>0.005980104135760605</v>
       </c>
       <c r="D36">
-        <v>0.005250388518464017</v>
+        <v>-0.003740597879400238</v>
       </c>
       <c r="E36">
-        <v>-0.02135974888280908</v>
+        <v>-0.007939573339787741</v>
       </c>
       <c r="F36">
-        <v>0.03913568933049721</v>
+        <v>-0.002318824410455117</v>
       </c>
       <c r="G36">
-        <v>0.03046472171884636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.0210903778770388</v>
+      </c>
+      <c r="H36">
+        <v>0.01639041561990797</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.001695360718801986</v>
+        <v>-0.02592133266417398</v>
       </c>
       <c r="C38">
-        <v>-0.001570559177122582</v>
+        <v>-0.01627374263637969</v>
       </c>
       <c r="D38">
-        <v>0.01600325973526801</v>
+        <v>-0.01201878383958872</v>
       </c>
       <c r="E38">
-        <v>0.02913743497696689</v>
+        <v>0.00143258089617399</v>
       </c>
       <c r="F38">
-        <v>0.03812205826040312</v>
+        <v>-0.009207480391583049</v>
       </c>
       <c r="G38">
-        <v>0.01403413913330433</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02339438019155699</v>
+      </c>
+      <c r="H38">
+        <v>0.0441868647830199</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.02987389769689366</v>
+        <v>-0.01875018638677263</v>
       </c>
       <c r="C39">
-        <v>-0.03727579568897219</v>
+        <v>-0.01018882782022028</v>
       </c>
       <c r="D39">
-        <v>0.01949541000171676</v>
+        <v>-0.08620131121150053</v>
       </c>
       <c r="E39">
-        <v>-0.0336977713157767</v>
+        <v>0.008193872315304981</v>
       </c>
       <c r="F39">
-        <v>0.0697001616482512</v>
+        <v>-0.01799099944807439</v>
       </c>
       <c r="G39">
-        <v>0.02706623884675501</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.0395324055201297</v>
+      </c>
+      <c r="H39">
+        <v>0.07808310166178511</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.03276781633553633</v>
+        <v>-0.0314993163367089</v>
       </c>
       <c r="C40">
-        <v>-0.06618170682331809</v>
+        <v>-0.002696507565666073</v>
       </c>
       <c r="D40">
-        <v>-0.01369799591044966</v>
+        <v>-0.03148959124045413</v>
       </c>
       <c r="E40">
-        <v>-0.005974178303019381</v>
+        <v>0.02595564933221573</v>
       </c>
       <c r="F40">
-        <v>0.09194500542770578</v>
+        <v>-0.0356926223505994</v>
       </c>
       <c r="G40">
-        <v>0.04888929244220893</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02252511736513131</v>
+      </c>
+      <c r="H40">
+        <v>0.06539309571081806</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.00196662840178111</v>
+        <v>-0.01174340773527836</v>
       </c>
       <c r="C41">
-        <v>0.0001817570271944491</v>
+        <v>0.003255402146907286</v>
       </c>
       <c r="D41">
-        <v>0.008577948789259441</v>
+        <v>0.01490601315405023</v>
       </c>
       <c r="E41">
-        <v>-0.0003678986611556258</v>
+        <v>-0.0002195268420474598</v>
       </c>
       <c r="F41">
-        <v>0.01519581298129402</v>
+        <v>0.003473922628614374</v>
       </c>
       <c r="G41">
-        <v>0.05174058822050158</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.001078472556120808</v>
+      </c>
+      <c r="H41">
+        <v>-0.004861925379515374</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>-0.3399699905317288</v>
+        <v>-0.1634204481628949</v>
       </c>
       <c r="C42">
-        <v>0.07065593549879856</v>
+        <v>0.06259581116281145</v>
       </c>
       <c r="D42">
-        <v>0.7348894704482973</v>
+        <v>-0.2394980288976477</v>
       </c>
       <c r="E42">
-        <v>0.4222580685208809</v>
+        <v>0.2205474093773197</v>
       </c>
       <c r="F42">
-        <v>-0.3075194568071637</v>
+        <v>0.8967440422636612</v>
       </c>
       <c r="G42">
-        <v>0.1668057321904297</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.196713819889055</v>
+      </c>
+      <c r="H42">
+        <v>0.003035262375388869</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.0004597780875804548</v>
+        <v>-0.01446012807996501</v>
       </c>
       <c r="C43">
-        <v>-0.001119033294920898</v>
+        <v>0.003215867756819854</v>
       </c>
       <c r="D43">
-        <v>0.01095069779784643</v>
+        <v>0.01258288874631806</v>
       </c>
       <c r="E43">
-        <v>-0.0006702488813498728</v>
+        <v>0.003684831669711112</v>
       </c>
       <c r="F43">
-        <v>0.03376936028845949</v>
+        <v>0.004281278544046046</v>
       </c>
       <c r="G43">
-        <v>0.04893054205385702</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.002975496445503907</v>
+      </c>
+      <c r="H43">
+        <v>0.008238092167709418</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01665517070152282</v>
+        <v>-0.01992000398155101</v>
       </c>
       <c r="C44">
-        <v>0.002598216903684874</v>
+        <v>-0.006518032641861169</v>
       </c>
       <c r="D44">
-        <v>0.01197471368532275</v>
+        <v>-0.0341682043455795</v>
       </c>
       <c r="E44">
-        <v>-0.0002325138825686999</v>
+        <v>-0.006102113545344904</v>
       </c>
       <c r="F44">
-        <v>0.1146594893880653</v>
+        <v>-0.002298097670428284</v>
       </c>
       <c r="G44">
-        <v>0.08118883489985727</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04244689111501088</v>
+      </c>
+      <c r="H44">
+        <v>0.06643842168198053</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.01986350699339972</v>
+        <v>-0.01582193572509298</v>
       </c>
       <c r="C46">
-        <v>-0.01454957482369565</v>
+        <v>0.004507156305680513</v>
       </c>
       <c r="D46">
-        <v>0.01995139594503249</v>
+        <v>-0.01262730841064909</v>
       </c>
       <c r="E46">
-        <v>-0.03556393364724519</v>
+        <v>0.0008735965428498644</v>
       </c>
       <c r="F46">
-        <v>0.07743830160719373</v>
+        <v>-0.01117702346897241</v>
       </c>
       <c r="G46">
-        <v>0.05501556757237381</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04380753508763623</v>
+      </c>
+      <c r="H46">
+        <v>0.007770739868039456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.09247593699234052</v>
+        <v>-0.07411891435458756</v>
       </c>
       <c r="C47">
-        <v>-0.03043249811301421</v>
+        <v>-0.02878487980551527</v>
       </c>
       <c r="D47">
-        <v>-0.004448769185875855</v>
+        <v>-0.0479815929548958</v>
       </c>
       <c r="E47">
-        <v>-0.02937113478647012</v>
+        <v>-0.001598700863380947</v>
       </c>
       <c r="F47">
-        <v>0.04252015158042743</v>
+        <v>-0.01474034775247781</v>
       </c>
       <c r="G47">
-        <v>0.08366419431237088</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008299994737900497</v>
+      </c>
+      <c r="H47">
+        <v>-0.02333426443077336</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.01821824268851953</v>
+        <v>-0.02103685768985936</v>
       </c>
       <c r="C48">
-        <v>-0.007644298131247264</v>
+        <v>-0.005678319112691456</v>
       </c>
       <c r="D48">
-        <v>0.01112259430300706</v>
+        <v>-0.01089138360027923</v>
       </c>
       <c r="E48">
-        <v>-0.02057669218679853</v>
+        <v>-0.0002943688609254979</v>
       </c>
       <c r="F48">
-        <v>0.04212204108600062</v>
+        <v>-0.006980395376195632</v>
       </c>
       <c r="G48">
-        <v>0.02365136851649001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02307484018724162</v>
+      </c>
+      <c r="H48">
+        <v>0.01812254227331065</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.08703838693901256</v>
+        <v>-0.07163633383782976</v>
       </c>
       <c r="C50">
-        <v>-0.0280685049945468</v>
+        <v>-0.02560984474811984</v>
       </c>
       <c r="D50">
-        <v>0.01968950066457009</v>
+        <v>-0.04688228777264543</v>
       </c>
       <c r="E50">
-        <v>-0.02934827413023241</v>
+        <v>-0.01437236951898666</v>
       </c>
       <c r="F50">
-        <v>0.04641514057946185</v>
+        <v>-0.005104414159528863</v>
       </c>
       <c r="G50">
-        <v>0.03383443241783136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.006315430264137738</v>
+      </c>
+      <c r="H50">
+        <v>-0.005734128221689075</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.01597387823480359</v>
+        <v>-0.02047392890019919</v>
       </c>
       <c r="C51">
-        <v>0.004579353632418959</v>
+        <v>0.000570730864844184</v>
       </c>
       <c r="D51">
-        <v>-0.005015769949866073</v>
+        <v>-0.006846396056784857</v>
       </c>
       <c r="E51">
-        <v>0.01452293593526808</v>
+        <v>-0.005759888164729964</v>
       </c>
       <c r="F51">
-        <v>0.09638234160081909</v>
+        <v>-0.004085148081895385</v>
       </c>
       <c r="G51">
-        <v>0.06500726271227389</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03839285212834297</v>
+      </c>
+      <c r="H51">
+        <v>0.05078942187194609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1003361654769592</v>
+        <v>-0.08837883892113471</v>
       </c>
       <c r="C53">
-        <v>-0.03997149519159321</v>
+        <v>-0.03703291622558894</v>
       </c>
       <c r="D53">
-        <v>0.00211637055465498</v>
+        <v>-0.08365077601050445</v>
       </c>
       <c r="E53">
-        <v>-0.04767300603211417</v>
+        <v>-0.003741958603393568</v>
       </c>
       <c r="F53">
-        <v>-0.02527723264843012</v>
+        <v>-0.02866762947891509</v>
       </c>
       <c r="G53">
-        <v>0.02177239495363078</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03762198511869657</v>
+      </c>
+      <c r="H53">
+        <v>-0.03592195830507246</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.01610678542860244</v>
+        <v>-0.02852169518704644</v>
       </c>
       <c r="C54">
-        <v>0.004425368892170604</v>
+        <v>-0.00799844132463415</v>
       </c>
       <c r="D54">
-        <v>-0.001534282360291719</v>
+        <v>0.01248779831207203</v>
       </c>
       <c r="E54">
-        <v>-0.02891350073907028</v>
+        <v>-0.007445408211364918</v>
       </c>
       <c r="F54">
-        <v>0.05051039719670325</v>
+        <v>-0.006360958172454162</v>
       </c>
       <c r="G54">
-        <v>0.04446114923824229</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03818069096364039</v>
+      </c>
+      <c r="H54">
+        <v>0.002326500516328941</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1010590192182319</v>
+        <v>-0.07439569756233512</v>
       </c>
       <c r="C55">
-        <v>-0.02060547691120785</v>
+        <v>-0.03354550280785522</v>
       </c>
       <c r="D55">
-        <v>0.006364875319527701</v>
+        <v>-0.07881620309947483</v>
       </c>
       <c r="E55">
-        <v>-0.06623461000559884</v>
+        <v>-0.01256416843468055</v>
       </c>
       <c r="F55">
-        <v>-0.01599710409076979</v>
+        <v>-0.0212336714704213</v>
       </c>
       <c r="G55">
-        <v>0.0477306470886293</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01549839713532209</v>
+      </c>
+      <c r="H55">
+        <v>-0.04476907654420458</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1425655212206118</v>
+        <v>-0.1226617252346907</v>
       </c>
       <c r="C56">
-        <v>-0.05436921086366974</v>
+        <v>-0.05514787617346725</v>
       </c>
       <c r="D56">
-        <v>-0.03692869240305496</v>
+        <v>-0.1011482726026624</v>
       </c>
       <c r="E56">
-        <v>-0.0748322117995963</v>
+        <v>-0.005423454838058198</v>
       </c>
       <c r="F56">
-        <v>-0.05872178606906638</v>
+        <v>-0.05314532895130647</v>
       </c>
       <c r="G56">
-        <v>-0.02332791076963733</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.0723595996725549</v>
+      </c>
+      <c r="H56">
+        <v>-0.06037502117646384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>-0.04633726633711434</v>
+        <v>-0.03686295131083549</v>
       </c>
       <c r="C57">
-        <v>-0.02070226728325491</v>
+        <v>0.01102511653087288</v>
       </c>
       <c r="D57">
-        <v>0.00984187884646971</v>
+        <v>-0.03210941107138818</v>
       </c>
       <c r="E57">
-        <v>0.01357735434370645</v>
+        <v>0.01047728865201986</v>
       </c>
       <c r="F57">
-        <v>0.05585909737802443</v>
+        <v>-0.008102184275635809</v>
       </c>
       <c r="G57">
-        <v>0.03460174027721633</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.07227679424362329</v>
+      </c>
+      <c r="H57">
+        <v>0.05078072318715662</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.2142737298183477</v>
+        <v>-0.1376937169839946</v>
       </c>
       <c r="C58">
-        <v>-0.1032119747686854</v>
+        <v>-0.04826150457189186</v>
       </c>
       <c r="D58">
-        <v>0.1028575077008088</v>
+        <v>-0.1568180294501376</v>
       </c>
       <c r="E58">
-        <v>-0.07806617944914902</v>
+        <v>0.2134905977651621</v>
       </c>
       <c r="F58">
-        <v>0.4001689671704424</v>
+        <v>0.0707552653684817</v>
       </c>
       <c r="G58">
-        <v>-0.04085358167431446</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8120030231432098</v>
+      </c>
+      <c r="H58">
+        <v>-0.3946806390229158</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.05549116733915821</v>
+        <v>-0.166910960735873</v>
       </c>
       <c r="C59">
-        <v>0.04654918036938671</v>
+        <v>0.001700703287382015</v>
       </c>
       <c r="D59">
-        <v>-0.1155180021003757</v>
+        <v>0.2180042571284819</v>
       </c>
       <c r="E59">
-        <v>0.146314734781243</v>
+        <v>0.0107345166376665</v>
       </c>
       <c r="F59">
-        <v>0.06369837137575472</v>
+        <v>0.00372167752245999</v>
       </c>
       <c r="G59">
-        <v>-0.02584760504032352</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02060872308781953</v>
+      </c>
+      <c r="H59">
+        <v>0.02753082482895164</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.15367956255333</v>
+        <v>-0.1924442805154387</v>
       </c>
       <c r="C60">
-        <v>-0.08048245849457827</v>
+        <v>-0.02780049076235098</v>
       </c>
       <c r="D60">
-        <v>0.0201797374090186</v>
+        <v>-0.02580172431729483</v>
       </c>
       <c r="E60">
-        <v>0.09463833690894449</v>
+        <v>0.05260753573608222</v>
       </c>
       <c r="F60">
-        <v>0.1699074065463689</v>
+        <v>-0.0543484964834765</v>
       </c>
       <c r="G60">
-        <v>-0.3147550351494182</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02588963476409669</v>
+      </c>
+      <c r="H60">
+        <v>0.3694072131343507</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.02178271756791763</v>
+        <v>-0.02334640133566977</v>
       </c>
       <c r="C61">
-        <v>-0.02361779835259861</v>
+        <v>-0.01197418080797493</v>
       </c>
       <c r="D61">
-        <v>0.01388406496648095</v>
+        <v>-0.05369972030911276</v>
       </c>
       <c r="E61">
-        <v>-0.02321645212530389</v>
+        <v>-0.001454390357693973</v>
       </c>
       <c r="F61">
-        <v>0.0342981892833446</v>
+        <v>-0.02162362743996285</v>
       </c>
       <c r="G61">
-        <v>0.009931797093766759</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02575680287479222</v>
+      </c>
+      <c r="H61">
+        <v>0.05868000558947548</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.009702240198324934</v>
+        <v>-0.01267995269634666</v>
       </c>
       <c r="C63">
-        <v>-0.01571052219413706</v>
+        <v>0.0007746569432791173</v>
       </c>
       <c r="D63">
-        <v>0.01917829521573253</v>
+        <v>-0.0221545626669753</v>
       </c>
       <c r="E63">
-        <v>-0.02444871506015195</v>
+        <v>-0.004873559207908431</v>
       </c>
       <c r="F63">
-        <v>0.01529820387169238</v>
+        <v>-0.01096645103028476</v>
       </c>
       <c r="G63">
-        <v>0.06937300230611071</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.01702037389658851</v>
+      </c>
+      <c r="H63">
+        <v>0.01324103840749283</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03784490497272533</v>
+        <v>-0.04083177565152213</v>
       </c>
       <c r="C64">
-        <v>0.005093445573134954</v>
+        <v>-0.01111267152919553</v>
       </c>
       <c r="D64">
-        <v>0.002338774532311871</v>
+        <v>-0.03862416088403244</v>
       </c>
       <c r="E64">
-        <v>-0.05351476977630319</v>
+        <v>-0.01156925110318282</v>
       </c>
       <c r="F64">
-        <v>0.04474458043856275</v>
+        <v>-0.003595196765192391</v>
       </c>
       <c r="G64">
-        <v>0.05639100645685338</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.006201047941622267</v>
+      </c>
+      <c r="H64">
+        <v>0.04216545217451193</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.03667999795630482</v>
+        <v>-0.03985368737684453</v>
       </c>
       <c r="C65">
-        <v>-0.01392098522230168</v>
+        <v>-0.004618990314444795</v>
       </c>
       <c r="D65">
-        <v>0.004643814259446237</v>
+        <v>-0.07160005436761621</v>
       </c>
       <c r="E65">
-        <v>-0.02632040845137295</v>
+        <v>-0.007481939403375879</v>
       </c>
       <c r="F65">
-        <v>0.007657819959287324</v>
+        <v>-0.03943782282793327</v>
       </c>
       <c r="G65">
-        <v>-0.02269764050248001</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.004722357058878126</v>
+      </c>
+      <c r="H65">
+        <v>0.07388438304119999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.03477725737795252</v>
+        <v>-0.02845668120964382</v>
       </c>
       <c r="C66">
-        <v>-0.05169691764251331</v>
+        <v>-0.01804365498248471</v>
       </c>
       <c r="D66">
-        <v>0.01559983090988347</v>
+        <v>-0.1064134786687801</v>
       </c>
       <c r="E66">
-        <v>-0.0447477603754016</v>
+        <v>0.01035920929187451</v>
       </c>
       <c r="F66">
-        <v>0.05520365295529846</v>
+        <v>-0.03941891796017991</v>
       </c>
       <c r="G66">
-        <v>0.009030873324728362</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03651821745722551</v>
+      </c>
+      <c r="H66">
+        <v>0.08256193181892441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01111453423789559</v>
+        <v>-0.04643494097733459</v>
       </c>
       <c r="C67">
-        <v>-0.009522056608011037</v>
+        <v>-0.01808477999266516</v>
       </c>
       <c r="D67">
-        <v>0.005571312827379524</v>
+        <v>-0.012702073680853</v>
       </c>
       <c r="E67">
-        <v>0.03467060689954679</v>
+        <v>0.004447338132074856</v>
       </c>
       <c r="F67">
-        <v>0.02041382494332184</v>
+        <v>-0.01895279892925462</v>
       </c>
       <c r="G67">
-        <v>0.007711948967770526</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01329431687102768</v>
+      </c>
+      <c r="H67">
+        <v>0.0446860698384953</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.07336961974430638</v>
+        <v>-0.1615010662621831</v>
       </c>
       <c r="C68">
-        <v>0.0633800804230647</v>
+        <v>0.02592446211148519</v>
       </c>
       <c r="D68">
-        <v>-0.1276774208410484</v>
+        <v>0.2340692471527961</v>
       </c>
       <c r="E68">
-        <v>0.1511045121305239</v>
+        <v>0.006594865418961474</v>
       </c>
       <c r="F68">
-        <v>0.04830379034412972</v>
+        <v>0.04101346974895864</v>
       </c>
       <c r="G68">
-        <v>-0.05876560589150236</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.0283765993637101</v>
+      </c>
+      <c r="H68">
+        <v>-0.04938784406015456</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.06667918389612502</v>
+        <v>-0.06207865131447381</v>
       </c>
       <c r="C69">
-        <v>-0.04398648434825837</v>
+        <v>-0.0296374929504371</v>
       </c>
       <c r="D69">
-        <v>-0.01563931136033275</v>
+        <v>-0.04470098543052851</v>
       </c>
       <c r="E69">
-        <v>-0.02186700743640455</v>
+        <v>-0.0004098220378019716</v>
       </c>
       <c r="F69">
-        <v>0.03100217890160965</v>
+        <v>-0.02903198326250848</v>
       </c>
       <c r="G69">
-        <v>0.07277334012262168</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01211805590138145</v>
+      </c>
+      <c r="H69">
+        <v>0.007628036318744639</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.07647244004653619</v>
+        <v>-0.150774174778489</v>
       </c>
       <c r="C71">
-        <v>0.06638950509006612</v>
+        <v>0.01230328423193007</v>
       </c>
       <c r="D71">
-        <v>-0.1109549180823513</v>
+        <v>0.1943217049475186</v>
       </c>
       <c r="E71">
-        <v>0.2050897444997997</v>
+        <v>0.0139948353734241</v>
       </c>
       <c r="F71">
-        <v>0.04315353649819589</v>
+        <v>0.04840857934504562</v>
       </c>
       <c r="G71">
-        <v>0.01825207398776535</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03230699938999877</v>
+      </c>
+      <c r="H71">
+        <v>-0.02253944227343725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1145934417776879</v>
+        <v>-0.07806301759385433</v>
       </c>
       <c r="C72">
-        <v>-0.0656313808535193</v>
+        <v>-0.03998027758164839</v>
       </c>
       <c r="D72">
-        <v>-0.02307629241380044</v>
+        <v>-0.07691544859068224</v>
       </c>
       <c r="E72">
-        <v>-0.04421852590055018</v>
+        <v>0.01725872040194598</v>
       </c>
       <c r="F72">
-        <v>0.07439372058609933</v>
+        <v>-0.06613753272712397</v>
       </c>
       <c r="G72">
-        <v>-0.1172082166665828</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.0224552574356401</v>
+      </c>
+      <c r="H72">
+        <v>0.1318258344480281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2186754594683487</v>
+        <v>-0.2570534094873851</v>
       </c>
       <c r="C73">
-        <v>-0.1116440991304834</v>
+        <v>-0.04239447041365496</v>
       </c>
       <c r="D73">
-        <v>0.02124915671427204</v>
+        <v>-0.09039665383417425</v>
       </c>
       <c r="E73">
-        <v>0.1839415888956065</v>
+        <v>0.09276137960046923</v>
       </c>
       <c r="F73">
-        <v>0.2058613744770196</v>
+        <v>-0.06131665025714212</v>
       </c>
       <c r="G73">
-        <v>-0.4577101092502786</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04453723568345264</v>
+      </c>
+      <c r="H73">
+        <v>0.4802149900648924</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.1367287231528233</v>
+        <v>-0.1185242764154402</v>
       </c>
       <c r="C74">
-        <v>-0.03588183675824311</v>
+        <v>-0.05436464749861852</v>
       </c>
       <c r="D74">
-        <v>-0.009425130041820511</v>
+        <v>-0.1070398943651414</v>
       </c>
       <c r="E74">
-        <v>-0.05290433706376124</v>
+        <v>-0.00747742281504392</v>
       </c>
       <c r="F74">
-        <v>-0.07478967209635695</v>
+        <v>-0.03762626083576459</v>
       </c>
       <c r="G74">
-        <v>0.01167752537921709</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.05954365367690237</v>
+      </c>
+      <c r="H74">
+        <v>-0.02680615616865365</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.2288279731675368</v>
+        <v>-0.2294843925461616</v>
       </c>
       <c r="C75">
-        <v>-0.1005499884215922</v>
+        <v>-0.1002305263335545</v>
       </c>
       <c r="D75">
-        <v>-0.0762212695702653</v>
+        <v>-0.1600785871980998</v>
       </c>
       <c r="E75">
-        <v>-0.1102401381734313</v>
+        <v>0.009391749410853922</v>
       </c>
       <c r="F75">
-        <v>-0.08946372979678581</v>
+        <v>-0.0996422697390139</v>
       </c>
       <c r="G75">
-        <v>0.02357929293810529</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.122552289382396</v>
+      </c>
+      <c r="H75">
+        <v>-0.1366667596492834</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.2793384730004843</v>
+        <v>-0.1929374680488922</v>
       </c>
       <c r="C76">
-        <v>-0.09047864391192263</v>
+        <v>-0.09282880446759213</v>
       </c>
       <c r="D76">
-        <v>-0.1064195260615973</v>
+        <v>-0.1600362457815648</v>
       </c>
       <c r="E76">
-        <v>-0.1636437352244446</v>
+        <v>-0.03808053202564799</v>
       </c>
       <c r="F76">
-        <v>-0.1618247511451083</v>
+        <v>-0.09325195127804901</v>
       </c>
       <c r="G76">
-        <v>-0.005257757680887412</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.1147591574321489</v>
+      </c>
+      <c r="H76">
+        <v>-0.1328503210731713</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1285973374332955</v>
+        <v>-0.07169910661352299</v>
       </c>
       <c r="C77">
-        <v>-0.05392681286454681</v>
+        <v>-0.01491480338590988</v>
       </c>
       <c r="D77">
-        <v>0.09862974223029129</v>
+        <v>-0.07770427860832134</v>
       </c>
       <c r="E77">
-        <v>-0.05362516980077186</v>
+        <v>0.01564304870487899</v>
       </c>
       <c r="F77">
-        <v>0.1959775907176228</v>
+        <v>0.01417229084802389</v>
       </c>
       <c r="G77">
-        <v>0.2582083240290971</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08173556782568479</v>
+      </c>
+      <c r="H77">
+        <v>0.01374431104858474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.07417325086177959</v>
+        <v>-0.03949396767610609</v>
       </c>
       <c r="C78">
-        <v>-0.03590296468967681</v>
+        <v>-0.01530931128261298</v>
       </c>
       <c r="D78">
-        <v>0.05126642984716601</v>
+        <v>-0.06653922354317504</v>
       </c>
       <c r="E78">
-        <v>-0.0737497941025453</v>
+        <v>-0.001217455988931267</v>
       </c>
       <c r="F78">
-        <v>0.1136911069098447</v>
+        <v>-0.02067999418399231</v>
       </c>
       <c r="G78">
-        <v>0.03185812989404849</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06402745746577754</v>
+      </c>
+      <c r="H78">
+        <v>0.08524185593085047</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.2501859811676834</v>
+        <v>-0.1380956689974044</v>
       </c>
       <c r="C80">
-        <v>0.8778022283526289</v>
+        <v>-0.03630373509308334</v>
       </c>
       <c r="D80">
-        <v>0.06156457645077109</v>
+        <v>-0.08435770389808747</v>
       </c>
       <c r="E80">
-        <v>-0.3449476230497786</v>
+        <v>-0.9326360567639895</v>
       </c>
       <c r="F80">
-        <v>0.05985860107790284</v>
+        <v>0.2245917843695763</v>
       </c>
       <c r="G80">
-        <v>-0.1258652440281585</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1547812081358576</v>
+      </c>
+      <c r="H80">
+        <v>0.006056284470872553</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.1793534188996257</v>
+        <v>-0.1538916380471705</v>
       </c>
       <c r="C81">
-        <v>-0.07154987626789122</v>
+        <v>-0.06573392591914128</v>
       </c>
       <c r="D81">
-        <v>-0.08098819929091509</v>
+        <v>-0.1030130379686597</v>
       </c>
       <c r="E81">
-        <v>-0.09115174435094189</v>
+        <v>-0.01058745563132806</v>
       </c>
       <c r="F81">
-        <v>-0.104383278438666</v>
+        <v>-0.06692480120513003</v>
       </c>
       <c r="G81">
-        <v>-0.01131041248158327</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08124881395783699</v>
+      </c>
+      <c r="H81">
+        <v>-0.08858370190153664</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.03405161081582487</v>
+        <v>-0.03308533763367585</v>
       </c>
       <c r="C83">
-        <v>-0.02406051575259869</v>
+        <v>-0.006550128946839413</v>
       </c>
       <c r="D83">
-        <v>0.01663876216691257</v>
+        <v>-0.02395972868862622</v>
       </c>
       <c r="E83">
-        <v>0.00290791661105976</v>
+        <v>0.008065304354259431</v>
       </c>
       <c r="F83">
-        <v>0.06869059811755693</v>
+        <v>-0.0103561056164163</v>
       </c>
       <c r="G83">
-        <v>0.03538190671753193</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04695411996545652</v>
+      </c>
+      <c r="H83">
+        <v>0.0412971146468323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.2634321144579317</v>
+        <v>-0.2148836534598285</v>
       </c>
       <c r="C85">
-        <v>-0.08622419391411654</v>
+        <v>-0.08479575093880531</v>
       </c>
       <c r="D85">
-        <v>-0.0806425420894008</v>
+        <v>-0.1677391921460221</v>
       </c>
       <c r="E85">
-        <v>-0.1237837252177109</v>
+        <v>0.003033459653743558</v>
       </c>
       <c r="F85">
-        <v>-0.1088718867990373</v>
+        <v>-0.08237797919329043</v>
       </c>
       <c r="G85">
-        <v>0.02475474403371698</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1334792744102051</v>
+      </c>
+      <c r="H85">
+        <v>-0.09583683518901487</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.007535674409286029</v>
+        <v>-0.02544893058118281</v>
       </c>
       <c r="C86">
-        <v>-0.001798294706696985</v>
+        <v>-0.004308234546066768</v>
       </c>
       <c r="D86">
-        <v>0.03007726361605932</v>
+        <v>-0.03568611788767079</v>
       </c>
       <c r="E86">
-        <v>-0.02786138198477764</v>
+        <v>-0.0003671059888152429</v>
       </c>
       <c r="F86">
-        <v>0.07737030311172043</v>
+        <v>0.003003326845523738</v>
       </c>
       <c r="G86">
-        <v>0.0626693676001477</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05638668406599397</v>
+      </c>
+      <c r="H86">
+        <v>0.09381927641231423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.04213444012049564</v>
+        <v>-0.02610904866063909</v>
       </c>
       <c r="C87">
-        <v>0.002970563826759129</v>
+        <v>-0.005289085735554103</v>
       </c>
       <c r="D87">
-        <v>0.02271794195980141</v>
+        <v>-0.04698216910549028</v>
       </c>
       <c r="E87">
-        <v>-0.01050537180200128</v>
+        <v>-0.004013090353131478</v>
       </c>
       <c r="F87">
-        <v>0.113775801745708</v>
+        <v>-0.005238211397424383</v>
       </c>
       <c r="G87">
-        <v>0.03972393120822129</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08100551799913283</v>
+      </c>
+      <c r="H87">
+        <v>0.08114867370295087</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.01599759347514295</v>
+        <v>-0.04291780723916738</v>
       </c>
       <c r="C88">
-        <v>0.008144919549966032</v>
+        <v>0.009630201911618567</v>
       </c>
       <c r="D88">
-        <v>-0.01786054546220878</v>
+        <v>-0.0195641769112572</v>
       </c>
       <c r="E88">
-        <v>-0.01711639246709203</v>
+        <v>-0.01312638840858018</v>
       </c>
       <c r="F88">
-        <v>0.0005658319220822062</v>
+        <v>-0.0185302377791409</v>
       </c>
       <c r="G88">
-        <v>0.05998674687472028</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001461207874271652</v>
+      </c>
+      <c r="H88">
+        <v>0.02003846097107465</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.1082068994456734</v>
+        <v>-0.2628040828257057</v>
       </c>
       <c r="C89">
-        <v>0.09765613774233861</v>
+        <v>0.02400051808942973</v>
       </c>
       <c r="D89">
-        <v>-0.1917976690673506</v>
+        <v>0.3479698652030443</v>
       </c>
       <c r="E89">
-        <v>0.2543729265852042</v>
+        <v>0.01676664189069912</v>
       </c>
       <c r="F89">
-        <v>0.08653213923828987</v>
+        <v>0.02787967665047246</v>
       </c>
       <c r="G89">
-        <v>0.0157585633030875</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>0.0006655556382209928</v>
+      </c>
+      <c r="H89">
+        <v>0.009279896503162341</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.09063650990313074</v>
+        <v>-0.2117484809035177</v>
       </c>
       <c r="C90">
-        <v>0.1399125970656062</v>
+        <v>0.02319996291240351</v>
       </c>
       <c r="D90">
-        <v>-0.2142006239238062</v>
+        <v>0.3149429659164143</v>
       </c>
       <c r="E90">
-        <v>0.2649251833606842</v>
+        <v>0.008460820216231358</v>
       </c>
       <c r="F90">
-        <v>0.03679325353050712</v>
+        <v>0.05315103759066088</v>
       </c>
       <c r="G90">
-        <v>0.05119859445118926</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.0100122002570689</v>
+      </c>
+      <c r="H90">
+        <v>-0.05266378851307334</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.3075386158084109</v>
+        <v>-0.2291213653625519</v>
       </c>
       <c r="C91">
-        <v>-0.1288418587638559</v>
+        <v>-0.09684280757373605</v>
       </c>
       <c r="D91">
-        <v>-0.07953634194444165</v>
+        <v>-0.148595539728249</v>
       </c>
       <c r="E91">
-        <v>-0.1182650450709075</v>
+        <v>0.01005678815406583</v>
       </c>
       <c r="F91">
-        <v>-0.2246213698171806</v>
+        <v>-0.08388944348167271</v>
       </c>
       <c r="G91">
-        <v>-0.01261275795718283</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.1421285372306132</v>
+      </c>
+      <c r="H91">
+        <v>-0.1691678319650245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.1743720895253999</v>
+        <v>-0.2560054314139502</v>
       </c>
       <c r="C92">
-        <v>0.08660443173565001</v>
+        <v>-0.04556697011551537</v>
       </c>
       <c r="D92">
-        <v>-0.3776752026617576</v>
+        <v>0.2407161186278057</v>
       </c>
       <c r="E92">
-        <v>0.2126131944713119</v>
+        <v>-0.002949419204089746</v>
       </c>
       <c r="F92">
-        <v>-0.1044760279862159</v>
+        <v>-0.01406865157987618</v>
       </c>
       <c r="G92">
-        <v>0.4400751375807471</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.0236364733395257</v>
+      </c>
+      <c r="H92">
+        <v>-0.1148366856709051</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.09684732022929134</v>
+        <v>-0.2372670290773516</v>
       </c>
       <c r="C93">
-        <v>0.1211165529229295</v>
+        <v>0.01369158627878984</v>
       </c>
       <c r="D93">
-        <v>-0.2476976353581458</v>
+        <v>0.3225349443869562</v>
       </c>
       <c r="E93">
-        <v>0.3660414220098669</v>
+        <v>0.03162278298036461</v>
       </c>
       <c r="F93">
-        <v>-0.007874343035069826</v>
+        <v>0.05554596153757975</v>
       </c>
       <c r="G93">
-        <v>-0.03653881587385729</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.005527233448553463</v>
+      </c>
+      <c r="H93">
+        <v>0.01101496280689417</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.3005283100059035</v>
+        <v>-0.2792293439435854</v>
       </c>
       <c r="C94">
-        <v>-0.1603694643644154</v>
+        <v>-0.0920100909491904</v>
       </c>
       <c r="D94">
-        <v>-0.1682281011503799</v>
+        <v>-0.1435675439179361</v>
       </c>
       <c r="E94">
-        <v>-0.1558485275611606</v>
+        <v>0.03101823135902292</v>
       </c>
       <c r="F94">
-        <v>-0.1587472022256397</v>
+        <v>-0.1844281916612951</v>
       </c>
       <c r="G94">
-        <v>-0.03434018526683534</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2361064521018664</v>
+      </c>
+      <c r="H94">
+        <v>-0.2861332721039207</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.04852137242043907</v>
+        <v>-0.05457864125657057</v>
       </c>
       <c r="C95">
-        <v>-0.04491383309877032</v>
+        <v>-0.03512088021552395</v>
       </c>
       <c r="D95">
-        <v>0.05003954626356949</v>
+        <v>-0.08435659478380016</v>
       </c>
       <c r="E95">
-        <v>-0.05371980853793831</v>
+        <v>0.08253662047093727</v>
       </c>
       <c r="F95">
-        <v>0.06618141216266496</v>
+        <v>0.006552025053372829</v>
       </c>
       <c r="G95">
-        <v>0.2255167843559723</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04962636050546548</v>
+      </c>
+      <c r="H95">
+        <v>0.05225578380527257</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1640764144337484</v>
+        <v>-0.1828423730273694</v>
       </c>
       <c r="C98">
-        <v>-0.05818167678143012</v>
+        <v>-0.05600747615165574</v>
       </c>
       <c r="D98">
-        <v>0.02720000841853361</v>
+        <v>-0.03726960745420149</v>
       </c>
       <c r="E98">
-        <v>0.1387057883867891</v>
+        <v>0.05876409000953437</v>
       </c>
       <c r="F98">
-        <v>0.1246943952059763</v>
+        <v>-0.009248653793378872</v>
       </c>
       <c r="G98">
-        <v>-0.3577948944987791</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07997888100082352</v>
+      </c>
+      <c r="H98">
+        <v>0.3413091187252769</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.006781193481553805</v>
+        <v>-0.01748940930273737</v>
       </c>
       <c r="C101">
-        <v>-0.009717700426900368</v>
+        <v>-0.0004736821195374883</v>
       </c>
       <c r="D101">
-        <v>0.01867318773838897</v>
+        <v>-0.01375701664521584</v>
       </c>
       <c r="E101">
-        <v>-0.068154820991117</v>
+        <v>-0.003597735858737308</v>
       </c>
       <c r="F101">
-        <v>0.1755823106637402</v>
+        <v>-0.01868180338294128</v>
       </c>
       <c r="G101">
-        <v>0.05622757384790898</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1010199001602011</v>
+      </c>
+      <c r="H101">
+        <v>-0.02113617883502241</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.1159214316331357</v>
+        <v>-0.1021988369407765</v>
       </c>
       <c r="C102">
-        <v>-0.04616373117606618</v>
+        <v>-0.03358220743248878</v>
       </c>
       <c r="D102">
-        <v>-0.0315536134499182</v>
+        <v>-0.08132932236300908</v>
       </c>
       <c r="E102">
-        <v>-0.07349836754959101</v>
+        <v>-0.002955921927595558</v>
       </c>
       <c r="F102">
-        <v>-0.07939169573708464</v>
+        <v>-0.04696866551554002</v>
       </c>
       <c r="G102">
-        <v>-0.001891365700049479</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07353990062551868</v>
+      </c>
+      <c r="H102">
+        <v>-0.06489570448898291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>-0.04365972720682681</v>
+        <v>-0.01539092995587594</v>
       </c>
       <c r="C103">
-        <v>-0.004238084354538272</v>
+        <v>-0.006201725707707872</v>
       </c>
       <c r="D103">
-        <v>-0.009091961610826768</v>
+        <v>-0.01472396405804142</v>
       </c>
       <c r="E103">
-        <v>-0.05133521122969566</v>
+        <v>-0.009772235381281628</v>
       </c>
       <c r="F103">
-        <v>0.01033599335721366</v>
+        <v>-0.006727736704626373</v>
       </c>
       <c r="G103">
-        <v>0.03694325614236927</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001197966101218103</v>
+      </c>
+      <c r="H103">
+        <v>-0.01098695973477285</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.1830792374807761</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.9565122485722822</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>-0.1490343466193072</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.02912901474200948</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.1306554068894003</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01345587951817745</v>
+      </c>
+      <c r="H104">
+        <v>-0.04884895719369813</v>
       </c>
     </row>
   </sheetData>
